--- a/Progettazione/Protocollo di Comunicazione.xlsx
+++ b/Progettazione/Protocollo di Comunicazione.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ribon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\AreaProgetto-master\Progettazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDCC5F2-2EE1-4484-B843-AF2968E4AC57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1383,7 +1382,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1460,52 +1459,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43FF98"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFAE78D6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF47B0FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1577,6 +1531,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CasellaDiTesto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9420225" y="1447800"/>
+          <a:ext cx="3124200" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="76200" cmpd="tri">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>UPDATE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>NOTA:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t> Per un miglior funzionamento, ad ogni richiesta fatta al server associare una response (true/false) per capire se la richiesta sia andata a buon fine. Nel caso in cui il codice della response non sia specificato, utilizzare 001.</a:t>
+          </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1841,11 +1874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4767,27 +4800,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="zero">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="zero">
       <formula>NOT(ISERROR(SEARCH("zero",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"SC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"CS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"DELIVERY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"REVIEWING"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Progettazione/Protocollo di Comunicazione.xlsx
+++ b/Progettazione/Protocollo di Comunicazione.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="457">
   <si>
     <t>Comando</t>
   </si>
@@ -1178,9 +1178,6 @@
     <t xml:space="preserve"> Nome 1</t>
   </si>
   <si>
-    <t>Recensione 1: Float</t>
-  </si>
-  <si>
     <t>Menù: String (split)</t>
   </si>
   <si>
@@ -1377,6 +1374,27 @@
   </si>
   <si>
     <t>Like: Boolean</t>
+  </si>
+  <si>
+    <t>BoolMail</t>
+  </si>
+  <si>
+    <t>BoolPsw</t>
+  </si>
+  <si>
+    <t>BoolCell</t>
+  </si>
+  <si>
+    <t>BoolIndirizzo</t>
+  </si>
+  <si>
+    <t>Distanza 1</t>
+  </si>
+  <si>
+    <t>Recensione 1</t>
+  </si>
+  <si>
+    <t>Lat Long</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1477,55 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1877,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1889,7 +1955,7 @@
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
@@ -1898,7 +1964,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1907,36 +1973,36 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -1945,10 +2011,10 @@
         <v>368</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>369</v>
@@ -1957,62 +2023,62 @@
         <v>370</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>382</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -2021,10 +2087,10 @@
         <v>372</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>369</v>
@@ -2050,45 +2116,45 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -2097,36 +2163,36 @@
         <v>378</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -2135,390 +2201,390 @@
         <v>379</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>383</v>
+        <v>454</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>384</v>
+        <v>455</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>373</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>371</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>394</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>380</v>
@@ -2527,36 +2593,36 @@
         <v>381</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>373</v>
@@ -2571,469 +2637,469 @@
         <v>375</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>382</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>373</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="K21" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>448</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>450</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4800,23 +4866,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="zero">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="zero">
       <formula>NOT(ISERROR(SEARCH("zero",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"SC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"CS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"DELIVERY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"REVIEWING"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Progettazione/Protocollo di Comunicazione.xlsx
+++ b/Progettazione/Protocollo di Comunicazione.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Downloads\AreaProgetto-master\Progettazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riboni.andrea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="458">
   <si>
     <t>Comando</t>
   </si>
@@ -1178,9 +1178,6 @@
     <t xml:space="preserve"> Nome 1</t>
   </si>
   <si>
-    <t>Menù: String (split)</t>
-  </si>
-  <si>
     <t>IdProdotto</t>
   </si>
   <si>
@@ -1395,12 +1392,18 @@
   </si>
   <si>
     <t>Lat Long</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Media Recensioni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1477,55 +1480,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1603,16 +1558,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>322194</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>283680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1621,8 +1576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9420225" y="1447800"/>
-          <a:ext cx="3124200" cy="1190625"/>
+          <a:off x="12290564" y="1325633"/>
+          <a:ext cx="3133725" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1943,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1919,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1973,36 +1928,36 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -2011,10 +1966,10 @@
         <v>368</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>369</v>
@@ -2023,62 +1978,62 @@
         <v>370</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>382</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -2087,10 +2042,10 @@
         <v>372</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>369</v>
@@ -2116,45 +2071,45 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -2163,36 +2118,36 @@
         <v>378</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -2201,390 +2156,390 @@
         <v>379</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>383</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>455</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>390</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>371</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>392</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>380</v>
@@ -2593,36 +2548,36 @@
         <v>381</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>373</v>
@@ -2637,469 +2592,469 @@
         <v>375</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>382</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>373</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="K21" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>432</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>442</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>436</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>442</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="I30" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4866,23 +4821,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="zero">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="zero">
       <formula>NOT(ISERROR(SEARCH("zero",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"SC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"CS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"DELIVERY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"REVIEWING"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Progettazione/Protocollo di Comunicazione.xlsx
+++ b/Progettazione/Protocollo di Comunicazione.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riboni.andrea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ribon\Documents\GitHub\AreaProgetto\Progettazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5595D719-44C7-42FE-9E21-D4622697469F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="461">
   <si>
     <t>Comando</t>
   </si>
@@ -119,9 +120,6 @@
     <t>028</t>
   </si>
   <si>
-    <t>029</t>
-  </si>
-  <si>
     <t>030</t>
   </si>
   <si>
@@ -1398,12 +1396,24 @@
   </si>
   <si>
     <t>Media Recensioni</t>
+  </si>
+  <si>
+    <t>Carrello</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Nome Prodotto (o id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1480,7 +1490,35 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1533,6 +1571,79 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4AF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43FF98"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE78D6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF47B0FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4AF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43FF98"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1571,7 +1682,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CasellaDiTesto 1"/>
+        <xdr:cNvPr id="2" name="CasellaDiTesto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1895,10 +2012,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1919,7 +2036,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1928,1155 +2045,1177 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>452</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>454</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>395</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="K21" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>436</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="J26" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>446</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="I30" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -3092,7 +3231,7 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -3108,7 +3247,7 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3124,7 +3263,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -3140,7 +3279,7 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -3156,7 +3295,7 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -3171,1674 +3310,1687 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:L1048576">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="zero">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="zero">
       <formula>NOT(ISERROR(SEARCH("zero",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>"SC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
       <formula>"CS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"DELIVERY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"REVIEWING"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"OTHER"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"singola"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"multi-parametrica"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Progettazione/Protocollo di Comunicazione.xlsx
+++ b/Progettazione/Protocollo di Comunicazione.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AreaProgetto-master\Progettazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B57311-C210-45E3-9A36-28FA5A48F2F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="181">
   <si>
     <t>Comando</t>
   </si>
@@ -511,12 +510,69 @@
   </si>
   <si>
     <t>032 response</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>Imposta valore</t>
+  </si>
+  <si>
+    <t>numero campo</t>
+  </si>
+  <si>
+    <t>valore</t>
+  </si>
+  <si>
+    <t>0: Nome</t>
+  </si>
+  <si>
+    <t>1: Cognome</t>
+  </si>
+  <si>
+    <t>2: Cellulare</t>
+  </si>
+  <si>
+    <t>3: Indirizzo</t>
+  </si>
+  <si>
+    <t>4: Mail</t>
+  </si>
+  <si>
+    <t>5: Password</t>
+  </si>
+  <si>
+    <t>Chiedi valore</t>
+  </si>
+  <si>
+    <t>041 Response</t>
+  </si>
+  <si>
+    <t>6: IDUtente</t>
+  </si>
+  <si>
+    <t>IDUtente</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>Esito Generico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -662,45 +718,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43FF98"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4AF80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF4AF80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF43FF98"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -719,6 +737,30 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF43FF98"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4AF80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -786,22 +828,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>289064</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>58394</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>41830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>414130</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>82825</xdr:rowOff>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CasellaDiTesto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -809,8 +851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10012847" y="2203590"/>
-          <a:ext cx="3554066" cy="786431"/>
+          <a:off x="10368999" y="2758526"/>
+          <a:ext cx="2642979" cy="794714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -847,11 +889,19 @@
             <a:rPr lang="it-IT" sz="1100"/>
             <a:t>NOTA:</a:t>
           </a:r>
+          <a:endParaRPr lang="it-IT" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="it-IT" sz="1100" baseline="0"/>
-            <a:t> Per un miglior funzionamento, ad ogni richiesta fatta al server associare una response (true/false) per capire se la richiesta sia andata a buon fine. Nel caso in cui il codice della response non sia specificato, utilizzare 001.</a:t>
+            <a:t>Ad ogni richiesta è associata una response.</a:t>
           </a:r>
-          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+            <a:t>Se non dovesse essere esplicitamente specificata, il codice è 044.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1122,11 +1172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1192,7 @@
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1246,8 +1296,8 @@
       <c r="G3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>67</v>
+      <c r="H3" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>67</v>
@@ -1333,8 +1383,8 @@
       <c r="J5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>67</v>
+      <c r="K5" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>67</v>
@@ -2709,6 +2759,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
       <c r="B41" s="7" t="s">
         <v>144</v>
       </c>
@@ -2747,6 +2798,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
       <c r="B42" s="7" t="s">
         <v>144</v>
       </c>
@@ -2785,6 +2837,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
       <c r="B43" s="7" t="s">
         <v>144</v>
       </c>
@@ -2823,6 +2876,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
       <c r="B44" s="7" t="s">
         <v>144</v>
       </c>
@@ -2860,41 +2914,256 @@
         <v>67</v>
       </c>
     </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:M1048576">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="zero">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="zero">
       <formula>NOT(ISERROR(SEARCH("zero",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1048576">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"SC"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"CS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"REVIEWING"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"DELIVERY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"TELEGRAM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"OTHER"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"multi-parametrica"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"singola"</formula>
     </cfRule>
   </conditionalFormatting>
